--- a/src/locales/locales.xlsx
+++ b/src/locales/locales.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -545,9 +545,20 @@
         <v>Yoga Ball</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>video_play</v>
+      </c>
+      <c r="B14" t="str">
+        <v>视频播放</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Video Play</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/locales/locales.xlsx
+++ b/src/locales/locales.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -556,9 +556,53 @@
         <v>Video Play</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>others</v>
+      </c>
+      <c r="B15" t="str">
+        <v>其它</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>string_pending</v>
+      </c>
+      <c r="B16" t="str">
+        <v>待定</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Pending</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>string_cancel</v>
+      </c>
+      <c r="B17" t="str">
+        <v>取消</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Cancel</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>string_ok</v>
+      </c>
+      <c r="B18" t="str">
+        <v>确认</v>
+      </c>
+      <c r="C18" t="str">
+        <v>OK</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C18"/>
   </ignoredErrors>
 </worksheet>
 </file>